--- a/패킷 정의.xlsx
+++ b/패킷 정의.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저정보요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방입장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +83,6 @@
   </si>
   <si>
     <t>게임시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임끝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,6 +274,22 @@
   </si>
   <si>
     <t>스테이터스 클래스는 아직 미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +843,7 @@
     </row>
     <row r="2" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -853,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
@@ -870,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>7</v>
@@ -890,16 +898,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>11</v>
@@ -910,16 +918,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>12</v>
@@ -930,16 +938,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>8</v>
@@ -950,16 +958,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>9</v>
@@ -970,19 +978,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -990,17 +998,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1008,13 +1016,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="10" t="s">
@@ -1026,17 +1034,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1044,17 +1052,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1062,17 +1070,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,7 +1092,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1139,7 +1147,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1154,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1171,10 +1179,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1186,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1201,10 +1209,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1216,13 +1224,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1233,10 +1241,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1248,10 +1256,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1263,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1278,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1292,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1310,10 +1318,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1322,13 +1330,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -1337,13 +1345,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -1352,13 +1360,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -1367,13 +1375,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1382,20 +1390,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -1407,13 +1415,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="4"/>
     </row>
@@ -1433,7 +1441,7 @@
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1467,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1478,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1489,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1500,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1510,9 +1518,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1521,9 +1527,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1532,9 +1536,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1543,9 +1545,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1554,9 +1554,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1565,9 +1563,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1576,9 +1572,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1587,9 +1581,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1598,9 +1590,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1609,9 +1599,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
